--- a/GUA work/Pt(100)/IR data/nice IR table.xlsx
+++ b/GUA work/Pt(100)/IR data/nice IR table.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.25"/>

--- a/GUA work/Pt(100)/IR data/nice IR table.xlsx
+++ b/GUA work/Pt(100)/IR data/nice IR table.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.25"/>
@@ -666,7 +666,7 @@
         <v>1232</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -686,7 +686,7 @@
         <v>1268</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
